--- a/scene_cat_exp_2023.2.2_english/input_files/89_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/89_scenecat_memory_bedrooms_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>446</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_a8y4y.png</t>
+          <t>stimuli/img_ca8kd.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>75.15789473684211</v>
+        <v>92.05405405405405</v>
       </c>
       <c r="N2">
-        <v>53.76315789473684</v>
+        <v>73.02702702702703</v>
       </c>
       <c r="O2">
-        <v>64.46052631578948</v>
+        <v>82.54054054054055</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -577,55 +577,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_ozxpp.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>71.74418604651163</v>
+        <v>26.26470588235294</v>
       </c>
       <c r="N3">
-        <v>48.44186046511628</v>
+        <v>11.47058823529412</v>
       </c>
       <c r="O3">
-        <v>60.09302325581395</v>
+        <v>18.86764705882353</v>
       </c>
       <c r="P3">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>124</v>
+        <v>448</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -659,55 +654,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_4wq98.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>40.02777777777778</v>
+        <v>78.48387096774194</v>
       </c>
       <c r="N4">
-        <v>20.88888888888889</v>
+        <v>58.12903225806452</v>
       </c>
       <c r="O4">
-        <v>30.45833333333334</v>
+        <v>68.30645161290323</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -729,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>449</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -806,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -830,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ozxpp.png</t>
+          <t>stimuli/img_bpyv5.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>26.26470588235294</v>
+        <v>59.05882352941177</v>
       </c>
       <c r="N6">
-        <v>11.47058823529412</v>
+        <v>37.55882352941177</v>
       </c>
       <c r="O6">
-        <v>18.86764705882353</v>
+        <v>48.30882352941177</v>
       </c>
       <c r="P6">
         <v>34</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -883,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>127</v>
+        <v>451</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -907,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_g2akb.png</t>
+          <t>stimuli/img_5yhyk.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>87.875</v>
+        <v>46.375</v>
       </c>
       <c r="N7">
-        <v>79</v>
+        <v>31.325</v>
       </c>
       <c r="O7">
-        <v>83.4375</v>
+        <v>38.85</v>
       </c>
       <c r="P7">
         <v>40</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -960,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>128</v>
+        <v>452</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -972,50 +962,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_zt893.png</t>
+          <t>stimuli/img_e26ut.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>68.53191489361703</v>
+        <v>81.07692307692308</v>
       </c>
       <c r="N8">
-        <v>49.19148936170212</v>
+        <v>61.28205128205128</v>
       </c>
       <c r="O8">
-        <v>58.86170212765958</v>
+        <v>71.17948717948718</v>
       </c>
       <c r="P8">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1049,55 +1044,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_cogrz.png</t>
+          <t>stimuli/img_ce55l.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>60.5</v>
+        <v>82.23809523809524</v>
       </c>
       <c r="N9">
-        <v>39.71428571428572</v>
+        <v>64.07142857142857</v>
       </c>
       <c r="O9">
-        <v>50.10714285714286</v>
+        <v>73.1547619047619</v>
       </c>
       <c r="P9">
         <v>42</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1119,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1148,38 +1138,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_uxxo0.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>75.70270270270271</v>
+        <v>71.74418604651163</v>
       </c>
       <c r="N10">
-        <v>54.86486486486486</v>
+        <v>48.44186046511628</v>
       </c>
       <c r="O10">
-        <v>65.28378378378379</v>
+        <v>60.09302325581395</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1201,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>131</v>
+        <v>455</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1230,38 +1220,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_cmyvx.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>69.42857142857143</v>
+        <v>64.25</v>
       </c>
       <c r="N11">
-        <v>46.59523809523809</v>
+        <v>40.09375</v>
       </c>
       <c r="O11">
-        <v>58.01190476190476</v>
+        <v>52.171875</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1283,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1307,38 +1297,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_psgf7.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>78.675</v>
+        <v>26</v>
       </c>
       <c r="N12">
-        <v>57.9</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="O12">
-        <v>68.28749999999999</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="P12">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1360,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1372,50 +1362,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_ce55l.png</t>
+          <t>stimuli/img_wyctg.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>82.23809523809524</v>
+        <v>33.44736842105263</v>
       </c>
       <c r="N13">
-        <v>64.07142857142857</v>
+        <v>11.39473684210526</v>
       </c>
       <c r="O13">
-        <v>73.1547619047619</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1437,67 +1432,27 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>134</v>
+        <v>458</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
-        </is>
-      </c>
-      <c r="M14">
-        <v>53.87179487179487</v>
-      </c>
-      <c r="N14">
-        <v>36.02564102564103</v>
-      </c>
-      <c r="O14">
-        <v>44.94871794871795</v>
-      </c>
-      <c r="P14">
-        <v>39</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>3</v>
-      </c>
-      <c r="V14">
-        <v>3</v>
+          <t>stimuli/catch_02.jpg</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1519,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>135</v>
+        <v>459</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1543,38 +1498,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_ca8kd.png</t>
+          <t>stimuli/img_zt893.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>92.05405405405405</v>
+        <v>68.53191489361703</v>
       </c>
       <c r="N15">
-        <v>73.02702702702703</v>
+        <v>49.19148936170212</v>
       </c>
       <c r="O15">
-        <v>82.54054054054055</v>
+        <v>58.86170212765958</v>
       </c>
       <c r="P15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>136</v>
+        <v>460</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1620,38 +1575,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_0nckg.png</t>
+          <t>stimuli/img_0eflx.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>65.94285714285714</v>
+        <v>76.05128205128206</v>
       </c>
       <c r="N16">
-        <v>41.17142857142857</v>
+        <v>53.53846153846154</v>
       </c>
       <c r="O16">
-        <v>53.55714285714285</v>
+        <v>64.7948717948718</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1673,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1685,32 +1640,37 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_rvssl.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>76.05128205128206</v>
+        <v>74.25</v>
       </c>
       <c r="N17">
-        <v>53.53846153846154</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O17">
-        <v>64.7948717948718</v>
+        <v>64.29166666666667</v>
       </c>
       <c r="P17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -1750,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>138</v>
+        <v>462</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1779,38 +1739,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_fnu4h.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>79.92105263157895</v>
+        <v>85.87179487179488</v>
       </c>
       <c r="N18">
-        <v>59.78947368421053</v>
+        <v>70.71794871794872</v>
       </c>
       <c r="O18">
-        <v>69.85526315789474</v>
+        <v>78.2948717948718</v>
       </c>
       <c r="P18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1832,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1844,50 +1804,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_le8uf.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>46.375</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="N19">
-        <v>31.325</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="O19">
-        <v>38.85</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="P19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1909,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>140</v>
+        <v>464</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1938,38 +1903,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>33.44736842105263</v>
+        <v>92</v>
       </c>
       <c r="N20">
-        <v>11.39473684210526</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O20">
-        <v>22.42105263157895</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1991,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2003,55 +1968,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
+          <t>stimuli/img_a8y4y.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>64.25</v>
+        <v>75.15789473684211</v>
       </c>
       <c r="N21">
-        <v>40.09375</v>
+        <v>53.76315789473684</v>
       </c>
       <c r="O21">
-        <v>52.171875</v>
+        <v>64.46052631578948</v>
       </c>
       <c r="P21">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2073,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2085,50 +2045,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bpyv5.png</t>
+          <t>stimuli/img_f4jxo.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>59.05882352941177</v>
+        <v>82.91666666666667</v>
       </c>
       <c r="N22">
-        <v>37.55882352941177</v>
+        <v>65.52777777777777</v>
       </c>
       <c r="O22">
-        <v>48.30882352941177</v>
+        <v>74.22222222222223</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2150,16 +2115,21 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>143</v>
+        <v>467</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2169,8 +2139,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/catch_20.jpg</t>
-        </is>
+          <t>stimuli/img_zgg62.png</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>82.18421052631579</v>
+      </c>
+      <c r="N23">
+        <v>63.52631578947368</v>
+      </c>
+      <c r="O23">
+        <v>72.85526315789474</v>
+      </c>
+      <c r="P23">
+        <v>38</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>144</v>
+        <v>468</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2216,38 +2216,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_u2o6z.png</t>
+          <t>stimuli/img_scrdm.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>58.6</v>
+        <v>78.675</v>
       </c>
       <c r="N24">
-        <v>38.2</v>
+        <v>57.9</v>
       </c>
       <c r="O24">
-        <v>48.40000000000001</v>
+        <v>68.28749999999999</v>
       </c>
       <c r="P24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>145</v>
+        <v>469</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2281,50 +2281,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_72fmj.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>82.18421052631579</v>
+        <v>53.87179487179487</v>
       </c>
       <c r="N25">
-        <v>63.52631578947368</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O25">
-        <v>72.85526315789474</v>
+        <v>44.94871794871795</v>
       </c>
       <c r="P25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2346,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>146</v>
+        <v>470</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2358,50 +2363,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_psgf7.png</t>
+          <t>stimuli/img_1vq1v.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>69.42857142857143</v>
       </c>
       <c r="N26">
-        <v>11.66666666666667</v>
+        <v>46.59523809523809</v>
       </c>
       <c r="O26">
-        <v>18.83333333333333</v>
+        <v>58.01190476190476</v>
       </c>
       <c r="P26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2423,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>147</v>
+        <v>471</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2435,55 +2445,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_c4uwt.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>88.18918918918919</v>
+        <v>44.48387096774194</v>
       </c>
       <c r="N27">
-        <v>74.05405405405405</v>
+        <v>30.06451612903226</v>
       </c>
       <c r="O27">
-        <v>81.12162162162161</v>
+        <v>37.2741935483871</v>
       </c>
       <c r="P27">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2505,7 +2510,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>148</v>
+        <v>472</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2534,38 +2539,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>12.88888888888889</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N28">
-        <v>9.222222222222221</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O28">
-        <v>11.05555555555556</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P28">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2587,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2599,50 +2604,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_c4uwt.png</t>
+          <t>stimuli/img_oou46.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>44.48387096774194</v>
+        <v>75.70270270270271</v>
       </c>
       <c r="N29">
-        <v>30.06451612903226</v>
+        <v>54.86486486486486</v>
       </c>
       <c r="O29">
-        <v>37.2741935483871</v>
+        <v>65.28378378378379</v>
       </c>
       <c r="P29">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2664,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2693,38 +2703,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_5il0t.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>77.11428571428571</v>
+        <v>48.09523809523809</v>
       </c>
       <c r="N30">
-        <v>58.42857142857143</v>
+        <v>30.90476190476191</v>
       </c>
       <c r="O30">
-        <v>67.77142857142857</v>
+        <v>39.5</v>
       </c>
       <c r="P30">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2746,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>151</v>
+        <v>475</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2758,50 +2768,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_kljj4.png</t>
+          <t>stimuli/img_3h4c9.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>64.34999999999999</v>
+        <v>85.47619047619048</v>
       </c>
       <c r="N31">
-        <v>44.15</v>
+        <v>67.26190476190476</v>
       </c>
       <c r="O31">
-        <v>54.25</v>
+        <v>76.36904761904762</v>
       </c>
       <c r="P31">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V31">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2823,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2835,37 +2850,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_g2akb.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>92</v>
+        <v>87.875</v>
       </c>
       <c r="N32">
-        <v>78.16216216216216</v>
+        <v>79</v>
       </c>
       <c r="O32">
-        <v>85.08108108108108</v>
+        <v>83.4375</v>
       </c>
       <c r="P32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -2905,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>153</v>
+        <v>477</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2917,50 +2927,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_gqy6z.png</t>
+          <t>stimuli/img_t2ioc.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>86.47368421052632</v>
+        <v>88.18918918918919</v>
       </c>
       <c r="N33">
-        <v>68.42105263157895</v>
+        <v>74.05405405405405</v>
       </c>
       <c r="O33">
-        <v>77.44736842105263</v>
+        <v>81.12162162162161</v>
       </c>
       <c r="P33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2982,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2994,55 +3009,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_u2o6z.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>82.91666666666667</v>
+        <v>58.6</v>
       </c>
       <c r="N34">
-        <v>65.52777777777777</v>
+        <v>38.2</v>
       </c>
       <c r="O34">
-        <v>74.22222222222223</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="P34">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3064,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>155</v>
+        <v>479</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3093,38 +3103,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_cogrz.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>85.87179487179488</v>
+        <v>60.5</v>
       </c>
       <c r="N35">
-        <v>70.71794871794872</v>
+        <v>39.71428571428572</v>
       </c>
       <c r="O35">
-        <v>78.2948717948718</v>
+        <v>50.10714285714286</v>
       </c>
       <c r="P35">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -3146,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3175,20 +3185,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_5il0t.png</t>
+          <t>stimuli/img_2js6m.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>48.09523809523809</v>
+        <v>40.02777777777778</v>
       </c>
       <c r="N36">
-        <v>30.90476190476191</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="O36">
-        <v>39.5</v>
+        <v>30.45833333333334</v>
       </c>
       <c r="P36">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -3228,7 +3238,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3240,55 +3250,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_wijef.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>74.25</v>
+        <v>69.875</v>
       </c>
       <c r="N37">
-        <v>54.33333333333334</v>
+        <v>48.025</v>
       </c>
       <c r="O37">
-        <v>64.29166666666667</v>
+        <v>58.95</v>
       </c>
       <c r="P37">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3310,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>158</v>
+        <v>482</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3339,38 +3344,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_3h4c9.png</t>
+          <t>stimuli/img_jp28n.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>85.47619047619048</v>
+        <v>65.02564102564102</v>
       </c>
       <c r="N38">
-        <v>67.26190476190476</v>
+        <v>44.97435897435897</v>
       </c>
       <c r="O38">
-        <v>76.36904761904762</v>
+        <v>55</v>
       </c>
       <c r="P38">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V38">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3392,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>159</v>
+        <v>483</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,38 +3426,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_jp28n.png</t>
+          <t>stimuli/img_juob3.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>65.02564102564102</v>
+        <v>79.92105263157895</v>
       </c>
       <c r="N39">
-        <v>44.97435897435897</v>
+        <v>59.78947368421053</v>
       </c>
       <c r="O39">
-        <v>55</v>
+        <v>69.85526315789474</v>
       </c>
       <c r="P39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3474,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3498,38 +3503,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_4wq98.png</t>
+          <t>stimuli/img_kljj4.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>78.48387096774194</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="N40">
-        <v>58.12903225806452</v>
+        <v>44.15</v>
       </c>
       <c r="O40">
-        <v>68.30645161290323</v>
+        <v>54.25</v>
       </c>
       <c r="P40">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V40">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -3551,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>161</v>
+        <v>485</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3575,38 +3580,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_wijef.png</t>
+          <t>stimuli/img_0nckg.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>69.875</v>
+        <v>65.94285714285714</v>
       </c>
       <c r="N41">
-        <v>48.025</v>
+        <v>41.17142857142857</v>
       </c>
       <c r="O41">
-        <v>58.95</v>
+        <v>53.55714285714285</v>
       </c>
       <c r="P41">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3628,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>162</v>
+        <v>486</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3640,55 +3645,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_e26ut.png</t>
+          <t>stimuli/img_gqy6z.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>81.07692307692308</v>
+        <v>86.47368421052632</v>
       </c>
       <c r="N42">
-        <v>61.28205128205128</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="O42">
-        <v>71.17948717948718</v>
+        <v>77.44736842105263</v>
       </c>
       <c r="P42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
